--- a/Data/EC/NIT-9005499353.xlsx
+++ b/Data/EC/NIT-9005499353.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CD179A8-47C3-41B4-96C6-B383542128EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1413999B-2C9C-4F3E-824B-59D40D09051F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5F46E37E-45EF-425F-80B0-7F87AA7C3261}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E407FCC1-A6D5-4CFB-AE30-3BCC6083B363}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,19 +65,19 @@
     <t>CC</t>
   </si>
   <si>
+    <t>73236943</t>
+  </si>
+  <si>
+    <t>TIRSO SAUL ATENCIO ATENCIO</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
     <t>33253257</t>
   </si>
   <si>
     <t>LILIANA REYES MUÑOZ</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>73236943</t>
-  </si>
-  <si>
-    <t>TIRSO SAUL ATENCIO ATENCIO</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -491,7 +491,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E51F1B7-7A04-675B-9BA4-6C3A436122EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9616E941-405B-DA4D-D697-47049C170F45}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -842,7 +842,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40A1A1A5-4FD0-4CC4-B6F9-272E997E0986}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEEB8274-A4CA-4F19-B872-AB61D953EFE9}">
   <dimension ref="B2:J23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">

--- a/Data/EC/NIT-9005499353.xlsx
+++ b/Data/EC/NIT-9005499353.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1413999B-2C9C-4F3E-824B-59D40D09051F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{80408F56-D3DB-4A94-8ABA-F483CF5EA672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E407FCC1-A6D5-4CFB-AE30-3BCC6083B363}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7B489055-2178-41DA-A4BE-A4BFFAE21E6C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -176,22 +176,22 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -391,23 +391,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -435,10 +435,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -491,7 +491,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9616E941-405B-DA4D-D697-47049C170F45}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{141E5F12-8DD3-1CE3-2F1F-2A394359BBE3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -842,7 +842,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEEB8274-A4CA-4F19-B872-AB61D953EFE9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FB4B911-2AA2-4BA9-865F-8B49654A554D}">
   <dimension ref="B2:J23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
